--- a/dataLatih/Book1.xlsx
+++ b/dataLatih/Book1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\peramalan\dataLatih\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Bulan</t>
   </si>
@@ -66,6 +61,27 @@
   </si>
   <si>
     <t>Juni</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>bt</t>
+  </si>
+  <si>
+    <t>ct</t>
+  </si>
+  <si>
+    <t>ft+m</t>
   </si>
 </sst>
 </file>
@@ -81,12 +97,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,8 +123,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,61 +160,25 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>CREAM MALAM SW2</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Cream</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Malam SW2</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -202,6 +189,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Aktual</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -218,7 +208,7 @@
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>Juli</c:v>
                 </c:pt>
@@ -284,6 +274,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Mei</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -359,6 +352,169 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Hasil TES</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>Juli</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Agustus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Oktober</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Desember</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Januari</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Februari</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Maret</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mei</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Juni</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Juli</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Agustus</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Oktober</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Desember</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Januari</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Februari</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Maret</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Mei</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -373,12 +529,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="438238024"/>
-        <c:axId val="438235280"/>
+        <c:axId val="23112320"/>
+        <c:axId val="50471296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="438238024"/>
+        <c:axId val="23112320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -421,7 +578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438235280"/>
+        <c:crossAx val="50471296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -429,7 +586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="438235280"/>
+        <c:axId val="50471296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,7 +612,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="6350">
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
@@ -480,7 +637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438238024"/>
+        <c:crossAx val="23112320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -492,6 +649,11 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -529,576 +691,20 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1163,7 +769,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1198,7 +804,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1375,7 +981,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1383,203 +989,857 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f>ROUND(0.1*B3+(1-0.1)*C2,2)</f>
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <f>ROUND(0.1*C3+(1-0.1)*D2,2)</f>
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <f>ROUND(0.1*D3+(1-0.1)*E2,2)</f>
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <f>ROUND(3*C3-3*D3+E3,2)</f>
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <f>ROUND(0.1/2*(1-0.1)^2*((6-5*0.1)*C3-(10-8*0.1)*D3+(4-3*0.1)*E3),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>ROUND(0.1^2/(1-0.1)^2*(C3-2*D3+E3),2)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>ROUND(F3+G3*1+1/2*H3*1^2,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f t="shared" ref="C4:C24" si="0">ROUND(0.1*B4+(1-0.1)*C3,2)</f>
+        <v>15.9</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D24" si="1">ROUND(0.1*C4+(1-0.1)*D3,2)</f>
+        <v>15.99</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E24" si="2">ROUND(0.1*D4+(1-0.1)*E3,2)</f>
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F24" si="3">ROUND(3*C4-3*D4+E4,2)</f>
+        <v>15.73</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G24" si="4">ROUND(0.1/2*(1-0.1)^2*((6-5*0.1)*C4-(10-8*0.1)*D4+(4-3*0.1)*E4),2)</f>
+        <v>-0.02</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H24" si="5">ROUND(0.1^2/(1-0.1)^2*(C4-2*D4+E4),2)</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I24" si="6">ROUND(F4+G4*1+1/2*H4*1^2,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>16.510000000000002</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>16.04</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>17.41</v>
+      </c>
+      <c r="G5">
+        <f>ROUND(0.1/2*(1-0.1)^2*((6-5*0.1)*C5-(10-8*0.1)*D5+(4-3*0.1)*E5),2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>15.66</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>14.98</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>-0.08</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>16.690000000000001</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>16.07</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>16.010000000000002</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>17.87</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>0.13</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>16.72</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>16.14</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>16.02</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>17.760000000000002</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>0.11</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>19.25</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>16.45</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>16.059999999999999</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>24.46</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>19.829999999999998</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>16.79</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>16.13</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>25.25</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>21.85</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>17.3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>16.25</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>29.9</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>0.86</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>24.37</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>18.010000000000002</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>16.43</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>35.51</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>1.18</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>0.06</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>26.63</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>18.87</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>16.670000000000002</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>39.950000000000003</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>24.87</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>19.47</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>16.95</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>33.15</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>0.83</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>25.28</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>20.05</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>17.260000000000002</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>32.950000000000003</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>24.75</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>20.52</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>17.59</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>30.28</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>24.48</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>20.92</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>17.920000000000002</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>28.6</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>0.34</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>23.73</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>21.2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>18.25</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>25.84</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>0.12</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>-0.01</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>21.96</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>21.28</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>18.55</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>20.59</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>-0.26</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>-0.03</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>21.36</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>21.29</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>18.82</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>19.03</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>-0.35</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>-0.03</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>20.420000000000002</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>21.2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>19.059999999999999</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>16.72</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>-0.49</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>-0.04</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>19.079999999999998</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>20.99</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>19.25</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>13.52</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>-0.69</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>-0.05</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>18.170000000000002</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>20.71</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>11.78</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>-0.76</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>-0.05</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>16.350000000000001</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="1"/>
+        <v>20.27</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="2"/>
+        <v>19.489999999999998</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="3"/>
+        <v>7.73</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.99</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.06</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dataLatih/Book1.xlsx
+++ b/dataLatih/Book1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Bulan</t>
   </si>
@@ -82,13 +82,43 @@
   </si>
   <si>
     <t>ft+m</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>MAPE</t>
+  </si>
+  <si>
+    <t>at-ft</t>
+  </si>
+  <si>
+    <t>|at-ft|</t>
+  </si>
+  <si>
+    <t>(at-ft)^2</t>
+  </si>
+  <si>
+    <t>|(at-ft)/at|</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t>Rata-Rata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,8 +126,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,8 +154,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,16 +179,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,11 +628,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="23112320"/>
-        <c:axId val="50471296"/>
+        <c:axId val="199261568"/>
+        <c:axId val="199271552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="23112320"/>
+        <c:axId val="199261568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -578,7 +675,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50471296"/>
+        <c:crossAx val="199271552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -586,7 +683,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50471296"/>
+        <c:axId val="199271552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -637,7 +734,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23112320"/>
+        <c:crossAx val="199261568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -695,16 +792,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -981,7 +1078,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -989,19 +1086,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1029,8 +1127,20 @@
       <c r="I1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1047,7 +1157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1082,8 +1192,24 @@
         <f>ROUND(F3+G3*1+1/2*H3*1^2,0)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <f>B3-I3</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>ABS(B3-I3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>J3^2</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>ABS((B3-I3)/B3)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1118,8 +1244,24 @@
         <f t="shared" ref="I4:I24" si="6">ROUND(F4+G4*1+1/2*H4*1^2,0)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f t="shared" ref="J4:J23" si="7">B4-I4</f>
+        <v>-1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K23" si="8">ABS(B4-I4)</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L24" si="9">J4^2</f>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f>ABS((B4-I4)/B4)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1154,8 +1296,24 @@
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M23" si="10">ABS((B5-I5)/B5)</f>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1190,8 +1348,24 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f t="shared" si="7"/>
+        <v>-7</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="10"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1226,8 +1400,24 @@
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="10"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1262,8 +1452,24 @@
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="10"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1298,8 +1504,24 @@
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="9"/>
+        <v>289</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="10"/>
+        <v>0.40476190476190477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1334,8 +1556,24 @@
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="10"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1370,8 +1608,24 @@
         <f t="shared" si="6"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="10"/>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1406,8 +1660,24 @@
         <f t="shared" si="6"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="10"/>
+        <v>0.21276595744680851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1442,8 +1712,24 @@
         <f t="shared" si="6"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="10"/>
+        <v>0.1276595744680851</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1478,8 +1764,24 @@
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f t="shared" si="7"/>
+        <v>-25</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="9"/>
+        <v>625</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="10"/>
+        <v>2.7777777777777777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1514,8 +1816,24 @@
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="10"/>
+        <v>0.17241379310344829</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1550,8 +1868,24 @@
         <f t="shared" si="6"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f t="shared" si="7"/>
+        <v>-11</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="9"/>
+        <v>121</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="10"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1586,8 +1920,24 @@
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f t="shared" si="7"/>
+        <v>-7</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="10"/>
+        <v>0.31818181818181818</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1622,8 +1972,24 @@
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>-9</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="10"/>
+        <v>0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1658,8 +2024,24 @@
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f t="shared" si="7"/>
+        <v>-14</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="9"/>
+        <v>196</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="10"/>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1694,8 +2076,24 @@
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="10"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1730,8 +2128,24 @@
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1766,8 +2180,24 @@
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f t="shared" si="7"/>
+        <v>-6</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="10"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1802,8 +2232,24 @@
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1835,6 +2281,74 @@
       <c r="I24" s="1">
         <f t="shared" si="6"/>
         <v>7</v>
+      </c>
+      <c r="J24" s="4">
+        <f>SUM(J3:J23)</f>
+        <v>-41</v>
+      </c>
+      <c r="K24" s="4">
+        <f>SUM(K3:K23)</f>
+        <v>149</v>
+      </c>
+      <c r="L24" s="4">
+        <f>SUM(L3:L23)</f>
+        <v>1797</v>
+      </c>
+      <c r="M24" s="4">
+        <f>SUM(M3:M23)</f>
+        <v>10.659282799844171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <f>COUNT(B3:B23)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2">
+        <f>K24/C27</f>
+        <v>7.0952380952380949</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28">
+        <f>C31/3</f>
+        <v>47.808385396578046</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2">
+        <f>L24/C27</f>
+        <v>85.571428571428569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2">
+        <f>(M24/C27)*100</f>
+        <v>50.758489523067475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="2">
+        <f>SUM(C28:C30)</f>
+        <v>143.42515618973414</v>
       </c>
     </row>
   </sheetData>

--- a/dataLatih/Book1.xlsx
+++ b/dataLatih/Book1.xlsx
@@ -118,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +140,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +175,11 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -210,19 +222,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
@@ -554,64 +569,64 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>11</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -628,11 +643,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="199261568"/>
-        <c:axId val="199271552"/>
+        <c:axId val="200113536"/>
+        <c:axId val="200123520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="199261568"/>
+        <c:axId val="200113536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199271552"/>
+        <c:crossAx val="200123520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -683,7 +698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199271552"/>
+        <c:axId val="200123520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -734,7 +749,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199261568"/>
+        <c:crossAx val="200113536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1078,7 +1093,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1089,7 +1104,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,7 +1180,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <f>ROUND(0.1*B3+(1-0.1)*C2,2)</f>
+        <f>ROUND(0.1*B2+(1-0.1)*C2,2)</f>
         <v>16</v>
       </c>
       <c r="D3">
@@ -1217,43 +1232,43 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C24" si="0">ROUND(0.1*B4+(1-0.1)*C3,2)</f>
-        <v>15.9</v>
+        <f>ROUND(0.1*B3+(1-0.1)*C3,2)</f>
+        <v>16</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D24" si="1">ROUND(0.1*C4+(1-0.1)*D3,2)</f>
-        <v>15.99</v>
+        <f t="shared" ref="D4:D24" si="0">ROUND(0.1*C4+(1-0.1)*D3,2)</f>
+        <v>16</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E24" si="2">ROUND(0.1*D4+(1-0.1)*E3,2)</f>
+        <f t="shared" ref="E4:E24" si="1">ROUND(0.1*D4+(1-0.1)*E3,2)</f>
         <v>16</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F24" si="3">ROUND(3*C4-3*D4+E4,2)</f>
-        <v>15.73</v>
+        <f t="shared" ref="F4:F24" si="2">ROUND(3*C4-3*D4+E4,2)</f>
+        <v>16</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G24" si="4">ROUND(0.1/2*(1-0.1)^2*((6-5*0.1)*C4-(10-8*0.1)*D4+(4-3*0.1)*E4),2)</f>
-        <v>-0.02</v>
+        <f t="shared" ref="G4:G24" si="3">ROUND(0.1/2*(1-0.1)^2*((6-5*0.1)*C4-(10-8*0.1)*D4+(4-3*0.1)*E4),2)</f>
+        <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H24" si="5">ROUND(0.1^2/(1-0.1)^2*(C4-2*D4+E4),2)</f>
+        <f t="shared" ref="H4:H24" si="4">ROUND(0.1^2/(1-0.1)^2*(C4-2*D4+E4),2)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I24" si="6">ROUND(F4+G4*1+1/2*H4*1^2,0)</f>
+        <f t="shared" ref="I4:I24" si="5">ROUND(F4+G4*1+1/2*H4*1^2,0)</f>
         <v>16</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J23" si="7">B4-I4</f>
+        <f t="shared" ref="J4:J23" si="6">B4-I4</f>
         <v>-1</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K23" si="8">ABS(B4-I4)</f>
+        <f t="shared" ref="K4:K23" si="7">ABS(B4-I4)</f>
         <v>1</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L24" si="9">J4^2</f>
+        <f t="shared" ref="L4:L23" si="8">J4^2</f>
         <v>1</v>
       </c>
       <c r="M4">
@@ -1269,48 +1284,48 @@
         <v>22</v>
       </c>
       <c r="C5">
+        <f>ROUND(0.1*B4+(1-0.1)*C4,2)</f>
+        <v>15.9</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
-        <v>16.510000000000002</v>
-      </c>
-      <c r="D5">
+        <v>15.99</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="1"/>
-        <v>16.04</v>
-      </c>
-      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="3"/>
-        <v>17.41</v>
+        <v>15.73</v>
       </c>
       <c r="G5">
         <f>ROUND(0.1/2*(1-0.1)^2*((6-5*0.1)*C5-(10-8*0.1)*D5+(4-3*0.1)*E5),2)</f>
-        <v>0.1</v>
+        <v>-0.02</v>
       </c>
       <c r="H5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="5"/>
-        <v>0.01</v>
-      </c>
-      <c r="I5">
+        <v>16</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="9"/>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M23" si="10">ABS((B5-I5)/B5)</f>
-        <v>0.18181818181818182</v>
+        <f t="shared" ref="M5:M23" si="9">ABS((B5-I5)/B5)</f>
+        <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1321,48 +1336,48 @@
         <v>8</v>
       </c>
       <c r="C6">
+        <f t="shared" ref="C4:C23" si="10">ROUND(0.1*B5+(1-0.1)*C5,2)</f>
+        <v>16.510000000000002</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>15.66</v>
-      </c>
-      <c r="D6">
+        <v>16.04</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="F6">
+        <v>17.41</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="3"/>
-        <v>14.98</v>
-      </c>
-      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="4"/>
-        <v>-0.08</v>
-      </c>
-      <c r="H6">
+        <v>0.01</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
+        <v>18</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="J6">
+        <v>-10</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="7"/>
-        <v>-7</v>
-      </c>
-      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="9"/>
-        <v>49</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="10"/>
-        <v>0.875</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1373,48 +1388,48 @@
         <v>26</v>
       </c>
       <c r="C7">
+        <f t="shared" si="10"/>
+        <v>15.66</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
-        <v>16.690000000000001</v>
-      </c>
-      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="1"/>
-        <v>16.07</v>
-      </c>
-      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="2"/>
-        <v>16.010000000000002</v>
-      </c>
-      <c r="F7">
+        <v>14.98</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="3"/>
-        <v>17.87</v>
-      </c>
-      <c r="G7">
+        <v>-0.08</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="4"/>
-        <v>0.13</v>
-      </c>
-      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="5"/>
-        <v>0.01</v>
-      </c>
-      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="J7">
+        <v>11</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="K7">
+        <v>11</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="L7">
+        <v>121</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="9"/>
-        <v>64</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="10"/>
-        <v>0.30769230769230771</v>
+        <v>0.42307692307692307</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1425,47 +1440,47 @@
         <v>17</v>
       </c>
       <c r="C8">
+        <f t="shared" si="10"/>
+        <v>16.690000000000001</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>16.72</v>
-      </c>
-      <c r="D8">
+        <v>16.07</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="1"/>
-        <v>16.14</v>
-      </c>
-      <c r="E8">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="2"/>
-        <v>16.02</v>
-      </c>
-      <c r="F8">
+        <v>17.87</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="3"/>
-        <v>17.760000000000002</v>
-      </c>
-      <c r="G8">
+        <v>0.13</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="4"/>
-        <v>0.11</v>
-      </c>
-      <c r="H8">
+        <v>0.01</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="5"/>
-        <v>0.01</v>
-      </c>
-      <c r="I8">
+        <v>18</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="10"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -1477,48 +1492,48 @@
         <v>42</v>
       </c>
       <c r="C9">
+        <f t="shared" si="10"/>
+        <v>16.72</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
-        <v>19.25</v>
-      </c>
-      <c r="D9">
+        <v>16.14</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="1"/>
-        <v>16.45</v>
-      </c>
-      <c r="E9">
+        <v>16.02</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="2"/>
-        <v>16.059999999999999</v>
-      </c>
-      <c r="F9">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="3"/>
-        <v>24.46</v>
-      </c>
-      <c r="G9">
+        <v>0.11</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="4"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H9">
+        <v>0.01</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
-      <c r="I9">
+        <v>18</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="J9">
+        <v>24</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-      <c r="K9">
+        <v>24</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="L9">
+        <v>576</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="9"/>
-        <v>289</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="10"/>
-        <v>0.40476190476190477</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1529,48 +1544,48 @@
         <v>25</v>
       </c>
       <c r="C10">
+        <f t="shared" si="10"/>
+        <v>19.25</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
-        <v>19.829999999999998</v>
-      </c>
-      <c r="D10">
+        <v>16.45</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="1"/>
-        <v>16.79</v>
-      </c>
-      <c r="E10">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="2"/>
-        <v>16.13</v>
-      </c>
-      <c r="F10">
+        <v>24.46</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="3"/>
-        <v>25.25</v>
-      </c>
-      <c r="G10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="4"/>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H10">
+        <v>0.03</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
-      <c r="I10">
+        <v>25</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="10"/>
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1581,48 +1596,48 @@
         <v>40</v>
       </c>
       <c r="C11">
+        <f t="shared" si="10"/>
+        <v>19.829999999999998</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
-        <v>21.85</v>
-      </c>
-      <c r="D11">
+        <v>16.79</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="1"/>
-        <v>17.3</v>
-      </c>
-      <c r="E11">
+        <v>16.13</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="2"/>
-        <v>16.25</v>
-      </c>
-      <c r="F11">
+        <v>25.25</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="3"/>
-        <v>29.9</v>
-      </c>
-      <c r="G11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="4"/>
-        <v>0.86</v>
-      </c>
-      <c r="H11">
+        <v>0.03</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="5"/>
-        <v>0.04</v>
-      </c>
-      <c r="I11">
+        <v>26</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="J11">
+        <v>14</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="K11">
+        <v>14</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="L11">
+        <v>196</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="9"/>
-        <v>81</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="10"/>
-        <v>0.22500000000000001</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1633,48 +1648,48 @@
         <v>47</v>
       </c>
       <c r="C12">
+        <f t="shared" si="10"/>
+        <v>21.85</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
-        <v>24.37</v>
-      </c>
-      <c r="D12">
+        <v>17.3</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="1"/>
-        <v>18.010000000000002</v>
-      </c>
-      <c r="E12">
+        <v>16.25</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="2"/>
-        <v>16.43</v>
-      </c>
-      <c r="F12">
+        <v>29.9</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="3"/>
-        <v>35.51</v>
-      </c>
-      <c r="G12">
+        <v>0.86</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="4"/>
-        <v>1.18</v>
-      </c>
-      <c r="H12">
+        <v>0.04</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="5"/>
-        <v>0.06</v>
-      </c>
-      <c r="I12">
+        <v>31</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-      <c r="J12">
+        <v>16</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="K12">
+        <v>16</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="L12">
+        <v>256</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="10"/>
-        <v>0.21276595744680851</v>
+        <v>0.34042553191489361</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1685,48 +1700,48 @@
         <v>47</v>
       </c>
       <c r="C13">
+        <f t="shared" si="10"/>
+        <v>24.37</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="0"/>
-        <v>26.63</v>
-      </c>
-      <c r="D13">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="1"/>
-        <v>18.87</v>
-      </c>
-      <c r="E13">
+        <v>16.43</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="2"/>
-        <v>16.670000000000002</v>
-      </c>
-      <c r="F13">
+        <v>35.51</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="3"/>
-        <v>39.950000000000003</v>
-      </c>
-      <c r="G13">
+        <v>1.18</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="4"/>
-        <v>1.4</v>
-      </c>
-      <c r="H13">
+        <v>0.06</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="5"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I13">
+        <v>37</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="6"/>
-        <v>41</v>
-      </c>
-      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="9"/>
-        <v>36</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="10"/>
-        <v>0.1276595744680851</v>
+        <v>0.21276595744680851</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1737,48 +1752,48 @@
         <v>9</v>
       </c>
       <c r="C14">
+        <f t="shared" si="10"/>
+        <v>26.63</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="0"/>
-        <v>24.87</v>
-      </c>
-      <c r="D14">
+        <v>18.87</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="1"/>
-        <v>19.47</v>
-      </c>
-      <c r="E14">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="2"/>
-        <v>16.95</v>
-      </c>
-      <c r="F14">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="3"/>
-        <v>33.15</v>
-      </c>
-      <c r="G14">
+        <v>1.4</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="4"/>
-        <v>0.83</v>
-      </c>
-      <c r="H14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="5"/>
-        <v>0.04</v>
-      </c>
-      <c r="I14">
+        <v>41</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="J14">
+        <v>-32</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="7"/>
-        <v>-25</v>
-      </c>
-      <c r="K14">
+        <v>32</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="L14">
+        <v>1024</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="9"/>
-        <v>625</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="10"/>
-        <v>2.7777777777777777</v>
+        <v>3.5555555555555554</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1789,47 +1804,47 @@
         <v>29</v>
       </c>
       <c r="C15">
+        <f t="shared" si="10"/>
+        <v>24.87</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="0"/>
-        <v>25.28</v>
-      </c>
-      <c r="D15">
+        <v>19.47</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="1"/>
-        <v>20.05</v>
-      </c>
-      <c r="E15">
+        <v>16.95</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="2"/>
-        <v>17.260000000000002</v>
-      </c>
-      <c r="F15">
+        <v>33.15</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="3"/>
-        <v>32.950000000000003</v>
-      </c>
-      <c r="G15">
+        <v>0.83</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="4"/>
-        <v>0.75</v>
-      </c>
-      <c r="H15">
+        <v>0.04</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
-      <c r="I15">
+        <v>34</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="J15">
+        <v>-5</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="7"/>
-        <v>-5</v>
-      </c>
-      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="L15">
+        <v>25</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="10"/>
         <v>0.17241379310344829</v>
       </c>
     </row>
@@ -1841,48 +1856,48 @@
         <v>20</v>
       </c>
       <c r="C16">
+        <f t="shared" si="10"/>
+        <v>25.28</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="0"/>
-        <v>24.75</v>
-      </c>
-      <c r="D16">
+        <v>20.05</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="1"/>
-        <v>20.52</v>
-      </c>
-      <c r="E16">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="2"/>
-        <v>17.59</v>
-      </c>
-      <c r="F16">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="3"/>
-        <v>30.28</v>
-      </c>
-      <c r="G16">
+        <v>0.75</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="H16">
+        <v>0.03</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="5"/>
-        <v>0.02</v>
-      </c>
-      <c r="I16">
+        <v>34</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="J16">
+        <v>-14</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="7"/>
-        <v>-11</v>
-      </c>
-      <c r="K16">
+        <v>14</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L16">
+        <v>196</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="9"/>
-        <v>121</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="10"/>
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1893,48 +1908,48 @@
         <v>22</v>
       </c>
       <c r="C17">
+        <f t="shared" si="10"/>
+        <v>24.75</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="0"/>
-        <v>24.48</v>
-      </c>
-      <c r="D17">
+        <v>20.52</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="1"/>
-        <v>20.92</v>
-      </c>
-      <c r="E17">
+        <v>17.59</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="2"/>
-        <v>17.920000000000002</v>
-      </c>
-      <c r="F17">
+        <v>30.28</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="3"/>
-        <v>28.6</v>
-      </c>
-      <c r="G17">
+        <v>0.5</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="4"/>
-        <v>0.34</v>
-      </c>
-      <c r="H17">
+        <v>0.02</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="5"/>
-        <v>0.01</v>
-      </c>
-      <c r="I17">
+        <v>31</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="J17">
+        <v>-9</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="7"/>
-        <v>-7</v>
-      </c>
-      <c r="K17">
+        <v>9</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="L17">
+        <v>81</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="9"/>
-        <v>49</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="10"/>
-        <v>0.31818181818181818</v>
+        <v>0.40909090909090912</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1945,48 +1960,48 @@
         <v>17</v>
       </c>
       <c r="C18">
+        <f t="shared" si="10"/>
+        <v>24.48</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="0"/>
-        <v>23.73</v>
-      </c>
-      <c r="D18">
+        <v>20.92</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="1"/>
-        <v>21.2</v>
-      </c>
-      <c r="E18">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="2"/>
-        <v>18.25</v>
-      </c>
-      <c r="F18">
+        <v>28.6</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="3"/>
-        <v>25.84</v>
-      </c>
-      <c r="G18">
+        <v>0.34</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="4"/>
-        <v>0.12</v>
-      </c>
-      <c r="H18">
+        <v>0.01</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="5"/>
-        <v>-0.01</v>
-      </c>
-      <c r="I18">
+        <v>29</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="J18">
+        <v>-12</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="7"/>
-        <v>-9</v>
-      </c>
-      <c r="K18">
+        <v>12</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="L18">
+        <v>144</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="9"/>
-        <v>81</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="10"/>
-        <v>0.52941176470588236</v>
+        <v>0.70588235294117652</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1997,48 +2012,48 @@
         <v>6</v>
       </c>
       <c r="C19">
+        <f t="shared" si="10"/>
+        <v>23.73</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="0"/>
-        <v>21.96</v>
-      </c>
-      <c r="D19">
+        <v>21.2</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="1"/>
-        <v>21.28</v>
-      </c>
-      <c r="E19">
+        <v>18.25</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="2"/>
-        <v>18.55</v>
-      </c>
-      <c r="F19">
+        <v>25.84</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="3"/>
-        <v>20.59</v>
-      </c>
-      <c r="G19">
+        <v>0.12</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="4"/>
-        <v>-0.26</v>
-      </c>
-      <c r="H19">
+        <v>-0.01</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="5"/>
-        <v>-0.03</v>
-      </c>
-      <c r="I19">
+        <v>26</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="6"/>
+        <v>-20</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="7"/>
-        <v>-14</v>
-      </c>
-      <c r="K19">
+      <c r="L19">
         <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="L19">
+        <v>400</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="9"/>
-        <v>196</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="10"/>
-        <v>2.3333333333333335</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2049,48 +2064,48 @@
         <v>16</v>
       </c>
       <c r="C20">
+        <f t="shared" si="10"/>
+        <v>21.96</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="0"/>
-        <v>21.36</v>
-      </c>
-      <c r="D20">
+        <v>21.28</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="1"/>
-        <v>21.29</v>
-      </c>
-      <c r="E20">
+        <v>18.55</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="2"/>
-        <v>18.82</v>
-      </c>
-      <c r="F20">
+        <v>20.59</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="3"/>
-        <v>19.03</v>
-      </c>
-      <c r="G20">
+        <v>-0.26</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="4"/>
-        <v>-0.35</v>
-      </c>
-      <c r="H20">
+        <v>-0.03</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="5"/>
-        <v>-0.03</v>
-      </c>
-      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="J20">
+        <v>-4</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="7"/>
-        <v>-3</v>
-      </c>
-      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="L20">
+        <v>16</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="10"/>
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2101,48 +2116,48 @@
         <v>12</v>
       </c>
       <c r="C21">
+        <f t="shared" si="10"/>
+        <v>21.36</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="0"/>
-        <v>20.420000000000002</v>
-      </c>
-      <c r="D21">
+        <v>21.29</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="1"/>
-        <v>21.2</v>
-      </c>
-      <c r="E21">
+        <v>18.82</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="2"/>
-        <v>19.059999999999999</v>
-      </c>
-      <c r="F21">
+        <v>19.03</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="3"/>
-        <v>16.72</v>
-      </c>
-      <c r="G21">
+        <v>-0.35</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="4"/>
-        <v>-0.49</v>
-      </c>
-      <c r="H21">
+        <v>-0.03</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="5"/>
-        <v>-0.04</v>
-      </c>
-      <c r="I21">
+        <v>19</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="J21">
+        <v>-7</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="7"/>
-        <v>-4</v>
-      </c>
-      <c r="K21">
+        <v>7</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="L21">
+        <v>49</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="10"/>
-        <v>0.33333333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2153,48 +2168,48 @@
         <v>7</v>
       </c>
       <c r="C22">
+        <f t="shared" si="10"/>
+        <v>20.420000000000002</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="0"/>
-        <v>19.079999999999998</v>
-      </c>
-      <c r="D22">
+        <v>21.2</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="1"/>
-        <v>20.99</v>
-      </c>
-      <c r="E22">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="2"/>
-        <v>19.25</v>
-      </c>
-      <c r="F22">
+        <v>16.72</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="3"/>
-        <v>13.52</v>
-      </c>
-      <c r="G22">
+        <v>-0.49</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="4"/>
-        <v>-0.69</v>
-      </c>
-      <c r="H22">
+        <v>-0.04</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="5"/>
-        <v>-0.05</v>
-      </c>
-      <c r="I22">
+        <v>16</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="J22">
+        <v>-9</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="7"/>
-        <v>-6</v>
-      </c>
-      <c r="K22">
+        <v>9</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="L22">
+        <v>81</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="9"/>
-        <v>36</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="10"/>
-        <v>0.8571428571428571</v>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2205,48 +2220,48 @@
         <v>10</v>
       </c>
       <c r="C23">
+        <f>ROUND(0.1*B22+(1-0.1)*C22,2)</f>
+        <v>19.079999999999998</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="0"/>
-        <v>18.170000000000002</v>
-      </c>
-      <c r="D23">
+        <v>20.99</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="1"/>
-        <v>20.71</v>
-      </c>
-      <c r="E23">
+        <v>19.25</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="F23">
+        <v>13.52</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="3"/>
-        <v>11.78</v>
-      </c>
-      <c r="G23">
+        <v>-0.69</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="4"/>
-        <v>-0.76</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="5"/>
         <v>-0.05</v>
       </c>
       <c r="I23">
+        <f>ROUND(F23+G23*1+1/2*H23*1^2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="J23">
+        <v>-3</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L23">
+        <v>9</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="10"/>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2255,48 +2270,48 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1">
+        <f>ROUND(0.1*B24+(1-0.1)*C23,2)</f>
+        <v>17.170000000000002</v>
+      </c>
+      <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>16.350000000000001</v>
-      </c>
-      <c r="D24" s="1">
+        <v>20.61</v>
+      </c>
+      <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>20.27</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="2"/>
-        <v>19.489999999999998</v>
+        <v>19.39</v>
       </c>
       <c r="F24" s="1">
+        <f>ROUND(3*C24-3*D24+E24,2)</f>
+        <v>9.07</v>
+      </c>
+      <c r="G24" s="1">
         <f t="shared" si="3"/>
-        <v>7.73</v>
-      </c>
-      <c r="G24" s="1">
+        <v>-0.95</v>
+      </c>
+      <c r="H24" s="1">
         <f t="shared" si="4"/>
-        <v>-0.99</v>
-      </c>
-      <c r="H24" s="1">
+        <v>-0.06</v>
+      </c>
+      <c r="I24" s="5">
         <f t="shared" si="5"/>
-        <v>-0.06</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J24" s="4">
         <f>SUM(J3:J23)</f>
-        <v>-41</v>
+        <v>-46</v>
       </c>
       <c r="K24" s="4">
         <f>SUM(K3:K23)</f>
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="L24" s="4">
         <f>SUM(L3:L23)</f>
-        <v>1797</v>
+        <v>3412</v>
       </c>
       <c r="M24" s="4">
         <f>SUM(M3:M23)</f>
-        <v>10.659282799844171</v>
+        <v>14.841238015744944</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2314,14 +2329,14 @@
       </c>
       <c r="C28" s="2">
         <f>K24/C27</f>
-        <v>7.0952380952380949</v>
+        <v>9.9047619047619051</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
       </c>
       <c r="F28">
         <f>C31/3</f>
-        <v>47.808385396578046</v>
+        <v>81.017838120230067</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2330,7 +2345,7 @@
       </c>
       <c r="C29" s="2">
         <f>L24/C27</f>
-        <v>85.571428571428569</v>
+        <v>162.47619047619048</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2339,7 +2354,7 @@
       </c>
       <c r="C30" s="2">
         <f>(M24/C27)*100</f>
-        <v>50.758489523067475</v>
+        <v>70.672561979737822</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2348,7 +2363,7 @@
       </c>
       <c r="C31" s="2">
         <f>SUM(C28:C30)</f>
-        <v>143.42515618973414</v>
+        <v>243.0535143606902</v>
       </c>
     </row>
   </sheetData>

--- a/dataLatih/Book1.xlsx
+++ b/dataLatih/Book1.xlsx
@@ -318,9 +318,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$24</c:f>
+              <c:f>Sheet1!$A$2:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>Juli</c:v>
                 </c:pt>
@@ -386,9 +386,6 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>April</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Mei</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -474,16 +471,16 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Hasil TES</c:v>
+            <c:v>Hasil Ramal</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$24</c:f>
+              <c:f>Sheet1!$A$2:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>Juli</c:v>
                 </c:pt>
@@ -549,19 +546,16 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>April</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Mei</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$24</c:f>
+              <c:f>Sheet1!$I$2:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="1">
                   <c:v>16</c:v>
                 </c:pt>
@@ -624,9 +618,6 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,11 +634,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="200113536"/>
-        <c:axId val="200123520"/>
+        <c:axId val="201096576"/>
+        <c:axId val="201114752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="200113536"/>
+        <c:axId val="201096576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,7 +681,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200123520"/>
+        <c:crossAx val="201114752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -698,7 +689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200123520"/>
+        <c:axId val="201114752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,7 +740,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200113536"/>
+        <c:crossAx val="201096576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1093,7 +1084,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1104,7 +1095,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,43 +1223,43 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <f>ROUND(0.1*B3+(1-0.1)*C3,2)</f>
+        <f t="shared" ref="C4:C24" si="0">ROUND(0.1*B3+(1-0.1)*C3,2)</f>
         <v>16</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D24" si="0">ROUND(0.1*C4+(1-0.1)*D3,2)</f>
+        <f t="shared" ref="D4:D24" si="1">ROUND(0.1*C4+(1-0.1)*D3,2)</f>
         <v>16</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E24" si="1">ROUND(0.1*D4+(1-0.1)*E3,2)</f>
+        <f t="shared" ref="E4:E24" si="2">ROUND(0.1*D4+(1-0.1)*E3,2)</f>
         <v>16</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F24" si="2">ROUND(3*C4-3*D4+E4,2)</f>
+        <f t="shared" ref="F4:F23" si="3">ROUND(3*C4-3*D4+E4,2)</f>
         <v>16</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G24" si="3">ROUND(0.1/2*(1-0.1)^2*((6-5*0.1)*C4-(10-8*0.1)*D4+(4-3*0.1)*E4),2)</f>
+        <f t="shared" ref="G4:G24" si="4">ROUND(0.1/2*(1-0.1)^2*((6-5*0.1)*C4-(10-8*0.1)*D4+(4-3*0.1)*E4),2)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H24" si="4">ROUND(0.1^2/(1-0.1)^2*(C4-2*D4+E4),2)</f>
+        <f t="shared" ref="H4:H24" si="5">ROUND(0.1^2/(1-0.1)^2*(C4-2*D4+E4),2)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I24" si="5">ROUND(F4+G4*1+1/2*H4*1^2,0)</f>
+        <f t="shared" ref="I4:I24" si="6">ROUND(F4+G4*1+1/2*H4*1^2,0)</f>
         <v>16</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J23" si="6">B4-I4</f>
+        <f t="shared" ref="J4:J23" si="7">B4-I4</f>
         <v>-1</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K23" si="7">ABS(B4-I4)</f>
+        <f t="shared" ref="K4:K23" si="8">ABS(B4-I4)</f>
         <v>1</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L23" si="8">J4^2</f>
+        <f t="shared" ref="L4:L23" si="9">J4^2</f>
         <v>1</v>
       </c>
       <c r="M4">
@@ -1288,15 +1279,15 @@
         <v>15.9</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f>ROUND(0.1*C5+(1-0.1)*D4,2)</f>
         <v>15.99</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f>ROUND(0.1*D5+(1-0.1)*E4,2)</f>
         <v>16</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
+        <f>ROUND(3*C5-3*D5+E5,2)</f>
         <v>15.73</v>
       </c>
       <c r="G5">
@@ -1304,27 +1295,27 @@
         <v>-0.02</v>
       </c>
       <c r="H5">
-        <f t="shared" si="4"/>
+        <f>ROUND(0.1^2/(1-0.1)^2*(C5-2*D5+E5),2)</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="5"/>
+        <f>ROUND(F5+G5*1+1/2*H5*1^2,0)</f>
         <v>16</v>
       </c>
       <c r="J5">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="K5">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
+      <c r="K5">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
       <c r="L5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M23" si="9">ABS((B5-I5)/B5)</f>
+        <f t="shared" ref="M5:M23" si="10">ABS((B5-I5)/B5)</f>
         <v>0.27272727272727271</v>
       </c>
     </row>
@@ -1336,47 +1327,47 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C4:C23" si="10">ROUND(0.1*B5+(1-0.1)*C5,2)</f>
+        <f t="shared" si="0"/>
         <v>16.510000000000002</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.04</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.41</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="H6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="I6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="J6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-10</v>
       </c>
       <c r="K6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="L6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="M6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.25</v>
       </c>
     </row>
@@ -1388,47 +1379,47 @@
         <v>26</v>
       </c>
       <c r="C7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>15.66</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.98</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.08</v>
       </c>
       <c r="H7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="J7">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="K7">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
+      <c r="K7">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
       <c r="L7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>121</v>
       </c>
       <c r="M7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.42307692307692307</v>
       </c>
     </row>
@@ -1440,47 +1431,47 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>16.690000000000001</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.07</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.010000000000002</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.87</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13</v>
       </c>
       <c r="H8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="I8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="J8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="K8">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L8">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="L8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="M8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -1492,47 +1483,47 @@
         <v>42</v>
       </c>
       <c r="C9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>16.72</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.14</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.02</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.760000000000002</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="I9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="J9">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="K9">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
+      <c r="K9">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
       <c r="L9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>576</v>
       </c>
       <c r="M9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -1544,47 +1535,47 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>19.25</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.45</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.059999999999999</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.46</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="H10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
       <c r="I10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="J10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L10">
+      <c r="K10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="L10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="M10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1596,47 +1587,47 @@
         <v>40</v>
       </c>
       <c r="C11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>19.829999999999998</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.79</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.13</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.25</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
       <c r="I11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="J11">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="K11">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
+      <c r="K11">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
       <c r="L11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>196</v>
       </c>
       <c r="M11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.35</v>
       </c>
     </row>
@@ -1648,47 +1639,47 @@
         <v>47</v>
       </c>
       <c r="C12">
+        <f t="shared" si="0"/>
+        <v>21.85</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>17.3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>16.25</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>29.9</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>0.86</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="9"/>
+        <v>256</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="10"/>
-        <v>21.85</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>17.3</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>16.25</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>29.9</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>0.86</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="4"/>
-        <v>0.04</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="8"/>
-        <v>256</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="9"/>
         <v>0.34042553191489361</v>
       </c>
     </row>
@@ -1700,47 +1691,47 @@
         <v>47</v>
       </c>
       <c r="C13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>24.37</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.010000000000002</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.43</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35.51</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.18</v>
       </c>
       <c r="H13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
       <c r="I13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="J13">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="K13">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
+      <c r="K13">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
       <c r="L13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="M13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.21276595744680851</v>
       </c>
     </row>
@@ -1752,47 +1743,47 @@
         <v>9</v>
       </c>
       <c r="C14">
+        <f t="shared" si="0"/>
+        <v>26.63</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>18.87</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>16.670000000000002</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>39.950000000000003</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="7"/>
+        <v>-32</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="9"/>
+        <v>1024</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="10"/>
-        <v>26.63</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>18.87</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>16.670000000000002</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>39.950000000000003</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>1.4</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="4"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="5"/>
-        <v>41</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="6"/>
-        <v>-32</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="7"/>
-        <v>32</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="8"/>
-        <v>1024</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="9"/>
         <v>3.5555555555555554</v>
       </c>
     </row>
@@ -1804,47 +1795,47 @@
         <v>29</v>
       </c>
       <c r="C15">
+        <f t="shared" si="0"/>
+        <v>24.87</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>19.47</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>16.95</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>33.15</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>0.83</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="10"/>
-        <v>24.87</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>19.47</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>16.95</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>33.15</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
-        <v>0.83</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="4"/>
-        <v>0.04</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="6"/>
-        <v>-5</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="9"/>
         <v>0.17241379310344829</v>
       </c>
     </row>
@@ -1856,47 +1847,47 @@
         <v>20</v>
       </c>
       <c r="C16">
+        <f t="shared" si="0"/>
+        <v>25.28</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>20.05</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>17.260000000000002</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>32.950000000000003</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="7"/>
+        <v>-14</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="9"/>
+        <v>196</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="10"/>
-        <v>25.28</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>20.05</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>17.260000000000002</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
-        <v>32.950000000000003</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
-        <v>0.75</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="4"/>
-        <v>0.03</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="6"/>
-        <v>-14</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="8"/>
-        <v>196</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
     </row>
@@ -1908,47 +1899,47 @@
         <v>22</v>
       </c>
       <c r="C17">
+        <f t="shared" si="0"/>
+        <v>24.75</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>20.52</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>17.59</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>30.28</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="7"/>
+        <v>-9</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="10"/>
-        <v>24.75</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>20.52</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>17.59</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>30.28</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="4"/>
-        <v>0.02</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="6"/>
-        <v>-9</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="8"/>
-        <v>81</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="9"/>
         <v>0.40909090909090912</v>
       </c>
     </row>
@@ -1960,47 +1951,47 @@
         <v>17</v>
       </c>
       <c r="C18">
+        <f t="shared" si="0"/>
+        <v>24.48</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>20.92</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>17.920000000000002</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>28.6</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>0.34</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>-12</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="9"/>
+        <v>144</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="10"/>
-        <v>24.48</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>20.92</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>17.920000000000002</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
-        <v>28.6</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="3"/>
-        <v>0.34</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="4"/>
-        <v>0.01</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="6"/>
-        <v>-12</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="8"/>
-        <v>144</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="9"/>
         <v>0.70588235294117652</v>
       </c>
     </row>
@@ -2012,47 +2003,47 @@
         <v>6</v>
       </c>
       <c r="C19">
+        <f t="shared" si="0"/>
+        <v>23.73</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>21.2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>18.25</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>25.84</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>0.12</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>-0.01</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="7"/>
+        <v>-20</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="9"/>
+        <v>400</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="10"/>
-        <v>23.73</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>21.2</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>18.25</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="2"/>
-        <v>25.84</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="4"/>
-        <v>-0.01</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="6"/>
-        <v>-20</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="8"/>
-        <v>400</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="9"/>
         <v>3.3333333333333335</v>
       </c>
     </row>
@@ -2064,47 +2055,47 @@
         <v>16</v>
       </c>
       <c r="C20">
+        <f t="shared" si="0"/>
+        <v>21.96</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>21.28</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>18.55</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>20.59</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>-0.26</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>-0.03</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="10"/>
-        <v>21.96</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>21.28</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>18.55</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="2"/>
-        <v>20.59</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="3"/>
-        <v>-0.26</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="4"/>
-        <v>-0.03</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="6"/>
-        <v>-4</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
     </row>
@@ -2116,47 +2107,47 @@
         <v>12</v>
       </c>
       <c r="C21">
+        <f t="shared" si="0"/>
+        <v>21.36</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>21.29</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>18.82</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>19.03</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>-0.35</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>-0.03</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="7"/>
+        <v>-7</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="10"/>
-        <v>21.36</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>21.29</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>18.82</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="2"/>
-        <v>19.03</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="3"/>
-        <v>-0.35</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="4"/>
-        <v>-0.03</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="6"/>
-        <v>-7</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="8"/>
-        <v>49</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="9"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -2168,47 +2159,47 @@
         <v>7</v>
       </c>
       <c r="C22">
+        <f t="shared" si="0"/>
+        <v>20.420000000000002</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>21.2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>19.059999999999999</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>16.72</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>-0.49</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>-0.04</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="7"/>
+        <v>-9</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="10"/>
-        <v>20.420000000000002</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>21.2</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>19.059999999999999</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="2"/>
-        <v>16.72</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="3"/>
-        <v>-0.49</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="4"/>
-        <v>-0.04</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="6"/>
-        <v>-9</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="8"/>
-        <v>81</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="9"/>
         <v>1.2857142857142858</v>
       </c>
     </row>
@@ -2224,23 +2215,23 @@
         <v>19.079999999999998</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.99</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.25</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.52</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.69</v>
       </c>
       <c r="H23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.05</v>
       </c>
       <c r="I23">
@@ -2248,19 +2239,19 @@
         <v>13</v>
       </c>
       <c r="J23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3</v>
       </c>
       <c r="K23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="L23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="M23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.3</v>
       </c>
     </row>
@@ -2269,33 +2260,33 @@
         <v>12</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1">
-        <f>ROUND(0.1*B24+(1-0.1)*C23,2)</f>
-        <v>17.170000000000002</v>
+      <c r="C24">
+        <f>ROUND(0.1*B23+(1-0.1)*C23,2)</f>
+        <v>18.170000000000002</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>20.61</v>
+        <f>ROUND(0.1*C24+(1-0.1)*D23,2)</f>
+        <v>20.71</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
-        <v>19.39</v>
+        <f t="shared" si="2"/>
+        <v>19.399999999999999</v>
       </c>
       <c r="F24" s="1">
         <f>ROUND(3*C24-3*D24+E24,2)</f>
-        <v>9.07</v>
+        <v>11.78</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.95</v>
+        <f t="shared" si="4"/>
+        <v>-0.76</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.06</v>
+        <f t="shared" si="5"/>
+        <v>-0.05</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>11</v>
       </c>
       <c r="J24" s="4">
         <f>SUM(J3:J23)</f>

--- a/dataLatih/Book1.xlsx
+++ b/dataLatih/Book1.xlsx
@@ -148,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +180,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -228,13 +234,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="3" builtinId="26"/>
@@ -634,11 +641,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="201096576"/>
-        <c:axId val="201114752"/>
+        <c:axId val="214072704"/>
+        <c:axId val="214090880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="201096576"/>
+        <c:axId val="214072704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -681,7 +688,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201114752"/>
+        <c:crossAx val="214090880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -689,7 +696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201114752"/>
+        <c:axId val="214090880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -740,7 +747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201096576"/>
+        <c:crossAx val="214072704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1084,7 +1091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1094,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1201,7 @@
         <f>ROUND(0.1^2/(1-0.1)^2*(C3-2*D3+E3),2)</f>
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="6">
         <f>ROUND(F3+G3*1+1/2*H3*1^2,0)</f>
         <v>16</v>
       </c>
@@ -1223,11 +1230,11 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C24" si="0">ROUND(0.1*B3+(1-0.1)*C3,2)</f>
+        <f t="shared" ref="C4:C22" si="0">ROUND(0.1*B3+(1-0.1)*C3,2)</f>
         <v>16</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D24" si="1">ROUND(0.1*C4+(1-0.1)*D3,2)</f>
+        <f t="shared" ref="D4:D23" si="1">ROUND(0.1*C4+(1-0.1)*D3,2)</f>
         <v>16</v>
       </c>
       <c r="E4">
@@ -1246,8 +1253,8 @@
         <f t="shared" ref="H4:H24" si="5">ROUND(0.1^2/(1-0.1)^2*(C4-2*D4+E4),2)</f>
         <v>0</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I24" si="6">ROUND(F4+G4*1+1/2*H4*1^2,0)</f>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I23" si="6">ROUND(F4+G4*1+1/2*H4*1^2,0)</f>
         <v>16</v>
       </c>
       <c r="J4">
@@ -1298,8 +1305,8 @@
         <f>ROUND(0.1^2/(1-0.1)^2*(C5-2*D5+E5),2)</f>
         <v>0</v>
       </c>
-      <c r="I5">
-        <f>ROUND(F5+G5*1+1/2*H5*1^2,0)</f>
+      <c r="I5" s="6">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="J5">
@@ -1350,7 +1357,7 @@
         <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="6">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
@@ -1402,7 +1409,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
@@ -1454,7 +1461,7 @@
         <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="6">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
@@ -1506,7 +1513,7 @@
         <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="6">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
@@ -1558,7 +1565,7 @@
         <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="6">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
@@ -1610,7 +1617,7 @@
         <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="6">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
@@ -1662,7 +1669,7 @@
         <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="6">
         <f t="shared" si="6"/>
         <v>31</v>
       </c>
@@ -1714,7 +1721,7 @@
         <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="6">
         <f t="shared" si="6"/>
         <v>37</v>
       </c>
@@ -1766,7 +1773,7 @@
         <f t="shared" si="5"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="6">
         <f t="shared" si="6"/>
         <v>41</v>
       </c>
@@ -1818,7 +1825,7 @@
         <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="6">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -1870,7 +1877,7 @@
         <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="6">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
@@ -1922,7 +1929,7 @@
         <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="6">
         <f t="shared" si="6"/>
         <v>31</v>
       </c>
@@ -1974,7 +1981,7 @@
         <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="6">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
@@ -2026,7 +2033,7 @@
         <f t="shared" si="5"/>
         <v>-0.01</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="6">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
@@ -2078,7 +2085,7 @@
         <f t="shared" si="5"/>
         <v>-0.03</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="6">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
@@ -2130,7 +2137,7 @@
         <f t="shared" si="5"/>
         <v>-0.03</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="6">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
@@ -2182,7 +2189,7 @@
         <f t="shared" si="5"/>
         <v>-0.04</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="6">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
@@ -2234,8 +2241,8 @@
         <f t="shared" si="5"/>
         <v>-0.05</v>
       </c>
-      <c r="I23">
-        <f>ROUND(F23+G23*1+1/2*H23*1^2,0)</f>
+      <c r="I23" s="6">
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="J23">
@@ -2285,7 +2292,7 @@
         <v>-0.05</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="I4:I24" si="11">ROUND(F24+G24*1+1/2*H24*1^2,0)</f>
         <v>11</v>
       </c>
       <c r="J24" s="4">
@@ -2327,7 +2334,7 @@
       </c>
       <c r="F28">
         <f>C31/3</f>
-        <v>81.017838120230067</v>
+        <v>80.684504786896738</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2335,8 +2342,8 @@
         <v>22</v>
       </c>
       <c r="C29" s="2">
-        <f>L24/C27</f>
-        <v>162.47619047619048</v>
+        <f>L24/C27-1</f>
+        <v>161.47619047619048</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2354,7 +2361,7 @@
       </c>
       <c r="C31" s="2">
         <f>SUM(C28:C30)</f>
-        <v>243.0535143606902</v>
+        <v>242.0535143606902</v>
       </c>
     </row>
   </sheetData>

--- a/dataLatih/Book1.xlsx
+++ b/dataLatih/Book1.xlsx
@@ -467,7 +467,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,11 +641,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="214072704"/>
-        <c:axId val="214090880"/>
+        <c:axId val="226939264"/>
+        <c:axId val="226940800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="214072704"/>
+        <c:axId val="226939264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,7 +688,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214090880"/>
+        <c:crossAx val="226940800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -696,7 +696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214090880"/>
+        <c:axId val="226940800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214072704"/>
+        <c:crossAx val="226939264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1091,7 +1091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2215,7 +2215,7 @@
         <v>11</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <f>ROUND(0.1*B22+(1-0.1)*C22,2)</f>
@@ -2247,19 +2247,19 @@
       </c>
       <c r="J23">
         <f t="shared" si="7"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="K23">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L23">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="M23">
         <f t="shared" si="10"/>
-        <v>0.3</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2269,47 +2269,47 @@
       <c r="B24" s="1"/>
       <c r="C24">
         <f>ROUND(0.1*B23+(1-0.1)*C23,2)</f>
-        <v>18.170000000000002</v>
+        <v>17.87</v>
       </c>
       <c r="D24" s="1">
         <f>ROUND(0.1*C24+(1-0.1)*D23,2)</f>
-        <v>20.71</v>
+        <v>20.68</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
+        <v>19.39</v>
       </c>
       <c r="F24" s="1">
         <f>ROUND(3*C24-3*D24+E24,2)</f>
-        <v>11.78</v>
+        <v>10.96</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="4"/>
-        <v>-0.76</v>
+        <v>-0.82</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="5"/>
         <v>-0.05</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" ref="I4:I24" si="11">ROUND(F24+G24*1+1/2*H24*1^2,0)</f>
-        <v>11</v>
+        <f t="shared" ref="I24" si="11">ROUND(F24+G24*1+1/2*H24*1^2,0)</f>
+        <v>10</v>
       </c>
       <c r="J24" s="4">
         <f>SUM(J3:J23)</f>
-        <v>-46</v>
+        <v>-49</v>
       </c>
       <c r="K24" s="4">
         <f>SUM(K3:K23)</f>
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L24" s="4">
         <f>SUM(L3:L23)</f>
-        <v>3412</v>
+        <v>3439</v>
       </c>
       <c r="M24" s="4">
         <f>SUM(M3:M23)</f>
-        <v>14.841238015744944</v>
+        <v>15.398380872887801</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2327,14 +2327,14 @@
       </c>
       <c r="C28" s="2">
         <f>K24/C27</f>
-        <v>9.9047619047619051</v>
+        <v>10.047619047619047</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
       </c>
       <c r="F28">
         <f>C31/3</f>
-        <v>80.684504786896738</v>
+        <v>82.045049004583802</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="C29" s="2">
         <f>L24/C27-1</f>
-        <v>161.47619047619048</v>
+        <v>162.76190476190476</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="C30" s="2">
         <f>(M24/C27)*100</f>
-        <v>70.672561979737822</v>
+        <v>73.325623204227625</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="C31" s="2">
         <f>SUM(C28:C30)</f>
-        <v>242.0535143606902</v>
+        <v>246.13514701375141</v>
       </c>
     </row>
   </sheetData>

--- a/dataLatih/Book1.xlsx
+++ b/dataLatih/Book1.xlsx
@@ -641,11 +641,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="226939264"/>
-        <c:axId val="226940800"/>
+        <c:axId val="235130880"/>
+        <c:axId val="235132416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="226939264"/>
+        <c:axId val="235130880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,7 +688,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226940800"/>
+        <c:crossAx val="235132416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -696,7 +696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="226940800"/>
+        <c:axId val="235132416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226939264"/>
+        <c:crossAx val="235130880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1091,7 +1091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1102,7 +1102,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dataLatih/Book1.xlsx
+++ b/dataLatih/Book1.xlsx
@@ -641,11 +641,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="235130880"/>
-        <c:axId val="235132416"/>
+        <c:axId val="219139072"/>
+        <c:axId val="139780864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="235130880"/>
+        <c:axId val="219139072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,7 +688,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235132416"/>
+        <c:crossAx val="139780864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -696,7 +696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="235132416"/>
+        <c:axId val="139780864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235130880"/>
+        <c:crossAx val="219139072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1091,7 +1091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1102,7 +1102,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,27 +1246,27 @@
         <v>16</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G24" si="4">ROUND(0.1/2*(1-0.1)^2*((6-5*0.1)*C4-(10-8*0.1)*D4+(4-3*0.1)*E4),2)</f>
+        <f>ROUND(0.1/2*(1-0.1)^2*((6-5*0.1)*C4-(10-8*0.1)*D4+(4-3*0.1)*E4),2)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H24" si="5">ROUND(0.1^2/(1-0.1)^2*(C4-2*D4+E4),2)</f>
+        <f t="shared" ref="H4:H24" si="4">ROUND(0.1^2/(1-0.1)^2*(C4-2*D4+E4),2)</f>
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" ref="I4:I23" si="6">ROUND(F4+G4*1+1/2*H4*1^2,0)</f>
+        <f t="shared" ref="I4:I23" si="5">ROUND(F4+G4*1+1/2*H4*1^2,0)</f>
         <v>16</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J23" si="7">B4-I4</f>
+        <f t="shared" ref="J4:J23" si="6">B4-I4</f>
         <v>-1</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K23" si="8">ABS(B4-I4)</f>
+        <f t="shared" ref="K4:K23" si="7">ABS(B4-I4)</f>
         <v>1</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L23" si="9">J4^2</f>
+        <f t="shared" ref="L4:L23" si="8">J4^2</f>
         <v>1</v>
       </c>
       <c r="M4">
@@ -1306,23 +1306,23 @@
         <v>0</v>
       </c>
       <c r="I5" s="6">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M23" si="10">ABS((B5-I5)/B5)</f>
+        <f t="shared" ref="M5:M23" si="9">ABS((B5-I5)/B5)</f>
         <v>0.27272727272727271</v>
       </c>
     </row>
@@ -1350,31 +1350,31 @@
         <v>17.41</v>
       </c>
       <c r="G6">
+        <f t="shared" ref="G4:G24" si="10">ROUND(0.1/2*(1-0.1)^2*((6-5*0.1)*C6-(10-8*0.1)*D6+(4-3*0.1)*E6),2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="H6">
+        <v>0.01</v>
+      </c>
+      <c r="I6" s="6">
         <f t="shared" si="5"/>
-        <v>0.01</v>
-      </c>
-      <c r="I6" s="6">
+        <v>18</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="J6">
+        <v>-10</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="7"/>
-        <v>-10</v>
-      </c>
-      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="10"/>
         <v>1.25</v>
       </c>
     </row>
@@ -1402,31 +1402,31 @@
         <v>14.98</v>
       </c>
       <c r="G7">
+        <f t="shared" si="10"/>
+        <v>-0.08</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="4"/>
-        <v>-0.08</v>
-      </c>
-      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
+        <v>15</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="J7">
+        <v>11</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L7">
+        <v>121</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="9"/>
-        <v>121</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="10"/>
         <v>0.42307692307692307</v>
       </c>
     </row>
@@ -1454,31 +1454,31 @@
         <v>17.87</v>
       </c>
       <c r="G8">
+        <f t="shared" si="10"/>
+        <v>0.13</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="4"/>
-        <v>0.13</v>
-      </c>
-      <c r="H8">
+        <v>0.01</v>
+      </c>
+      <c r="I8" s="6">
         <f t="shared" si="5"/>
-        <v>0.01</v>
-      </c>
-      <c r="I8" s="6">
+        <v>18</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="10"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -1506,31 +1506,31 @@
         <v>17.760000000000002</v>
       </c>
       <c r="G9">
+        <f t="shared" si="10"/>
+        <v>0.11</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="4"/>
-        <v>0.11</v>
-      </c>
-      <c r="H9">
+        <v>0.01</v>
+      </c>
+      <c r="I9" s="6">
         <f t="shared" si="5"/>
-        <v>0.01</v>
-      </c>
-      <c r="I9" s="6">
+        <v>18</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="J9">
+        <v>24</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="L9">
+        <v>576</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="9"/>
-        <v>576</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="10"/>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -1558,31 +1558,31 @@
         <v>24.46</v>
       </c>
       <c r="G10">
+        <f t="shared" si="10"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="4"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H10">
+        <v>0.03</v>
+      </c>
+      <c r="I10" s="6">
         <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
-      <c r="I10" s="6">
+        <v>25</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1610,31 +1610,31 @@
         <v>25.25</v>
       </c>
       <c r="G11">
+        <f t="shared" si="10"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="4"/>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H11">
+        <v>0.03</v>
+      </c>
+      <c r="I11" s="6">
         <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
-      <c r="I11" s="6">
+        <v>26</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="J11">
+        <v>14</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="L11">
+        <v>196</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="9"/>
-        <v>196</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="10"/>
         <v>0.35</v>
       </c>
     </row>
@@ -1662,31 +1662,31 @@
         <v>29.9</v>
       </c>
       <c r="G12">
+        <f t="shared" si="10"/>
+        <v>0.86</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="4"/>
-        <v>0.86</v>
-      </c>
-      <c r="H12">
+        <v>0.04</v>
+      </c>
+      <c r="I12" s="6">
         <f t="shared" si="5"/>
-        <v>0.04</v>
-      </c>
-      <c r="I12" s="6">
+        <v>31</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="J12">
+        <v>16</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="L12">
+        <v>256</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="9"/>
-        <v>256</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="10"/>
         <v>0.34042553191489361</v>
       </c>
     </row>
@@ -1714,31 +1714,31 @@
         <v>35.51</v>
       </c>
       <c r="G13">
+        <f t="shared" si="10"/>
+        <v>1.18</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="4"/>
-        <v>1.18</v>
-      </c>
-      <c r="H13">
+        <v>0.06</v>
+      </c>
+      <c r="I13" s="6">
         <f t="shared" si="5"/>
-        <v>0.06</v>
-      </c>
-      <c r="I13" s="6">
+        <v>37</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="10"/>
         <v>0.21276595744680851</v>
       </c>
     </row>
@@ -1766,31 +1766,31 @@
         <v>39.950000000000003</v>
       </c>
       <c r="G14">
+        <f t="shared" si="10"/>
+        <v>1.4</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="4"/>
-        <v>1.4</v>
-      </c>
-      <c r="H14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I14" s="6">
         <f t="shared" si="5"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I14" s="6">
+        <v>41</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="6"/>
-        <v>41</v>
-      </c>
-      <c r="J14">
+        <v>-32</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="7"/>
-        <v>-32</v>
-      </c>
-      <c r="K14">
+        <v>32</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="L14">
+        <v>1024</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="9"/>
-        <v>1024</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="10"/>
         <v>3.5555555555555554</v>
       </c>
     </row>
@@ -1818,31 +1818,31 @@
         <v>33.15</v>
       </c>
       <c r="G15">
+        <f t="shared" si="10"/>
+        <v>0.83</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="4"/>
-        <v>0.83</v>
-      </c>
-      <c r="H15">
+        <v>0.04</v>
+      </c>
+      <c r="I15" s="6">
         <f t="shared" si="5"/>
-        <v>0.04</v>
-      </c>
-      <c r="I15" s="6">
+        <v>34</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="J15">
+        <v>-5</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="7"/>
-        <v>-5</v>
-      </c>
-      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="L15">
+        <v>25</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="10"/>
         <v>0.17241379310344829</v>
       </c>
     </row>
@@ -1870,31 +1870,31 @@
         <v>32.950000000000003</v>
       </c>
       <c r="G16">
+        <f t="shared" si="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="4"/>
-        <v>0.75</v>
-      </c>
-      <c r="H16">
+        <v>0.03</v>
+      </c>
+      <c r="I16" s="6">
         <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
-      <c r="I16" s="6">
+        <v>34</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="J16">
+        <v>-14</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="7"/>
-        <v>-14</v>
-      </c>
-      <c r="K16">
+        <v>14</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="L16">
+        <v>196</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="9"/>
-        <v>196</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="10"/>
         <v>0.7</v>
       </c>
     </row>
@@ -1922,31 +1922,31 @@
         <v>30.28</v>
       </c>
       <c r="G17">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="H17">
+        <v>0.02</v>
+      </c>
+      <c r="I17" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
-      </c>
-      <c r="I17" s="6">
+        <v>31</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="J17">
+        <v>-9</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="7"/>
-        <v>-9</v>
-      </c>
-      <c r="K17">
+        <v>9</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="L17">
+        <v>81</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="9"/>
-        <v>81</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="10"/>
         <v>0.40909090909090912</v>
       </c>
     </row>
@@ -1974,31 +1974,31 @@
         <v>28.6</v>
       </c>
       <c r="G18">
+        <f t="shared" si="10"/>
+        <v>0.34</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="4"/>
-        <v>0.34</v>
-      </c>
-      <c r="H18">
+        <v>0.01</v>
+      </c>
+      <c r="I18" s="6">
         <f t="shared" si="5"/>
-        <v>0.01</v>
-      </c>
-      <c r="I18" s="6">
+        <v>29</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="J18">
+        <v>-12</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="7"/>
-        <v>-12</v>
-      </c>
-      <c r="K18">
+        <v>12</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="L18">
+        <v>144</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="9"/>
-        <v>144</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="10"/>
         <v>0.70588235294117652</v>
       </c>
     </row>
@@ -2026,31 +2026,31 @@
         <v>25.84</v>
       </c>
       <c r="G19">
+        <f t="shared" si="10"/>
+        <v>0.12</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="4"/>
-        <v>0.12</v>
-      </c>
-      <c r="H19">
+        <v>-0.01</v>
+      </c>
+      <c r="I19" s="6">
         <f t="shared" si="5"/>
-        <v>-0.01</v>
-      </c>
-      <c r="I19" s="6">
+        <v>26</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="J19">
+        <v>-20</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="7"/>
-        <v>-20</v>
-      </c>
-      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="L19">
+        <v>400</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="9"/>
-        <v>400</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="10"/>
         <v>3.3333333333333335</v>
       </c>
     </row>
@@ -2078,31 +2078,31 @@
         <v>20.59</v>
       </c>
       <c r="G20">
+        <f t="shared" si="10"/>
+        <v>-0.26</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="4"/>
-        <v>-0.26</v>
-      </c>
-      <c r="H20">
+        <v>-0.03</v>
+      </c>
+      <c r="I20" s="6">
         <f t="shared" si="5"/>
-        <v>-0.03</v>
-      </c>
-      <c r="I20" s="6">
+        <v>20</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="J20">
+        <v>-4</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="7"/>
-        <v>-4</v>
-      </c>
-      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="L20">
+        <v>16</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
     </row>
@@ -2130,31 +2130,31 @@
         <v>19.03</v>
       </c>
       <c r="G21">
+        <f t="shared" si="10"/>
+        <v>-0.35</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="4"/>
-        <v>-0.35</v>
-      </c>
-      <c r="H21">
+        <v>-0.03</v>
+      </c>
+      <c r="I21" s="6">
         <f t="shared" si="5"/>
-        <v>-0.03</v>
-      </c>
-      <c r="I21" s="6">
+        <v>19</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="J21">
+        <v>-7</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="7"/>
-        <v>-7</v>
-      </c>
-      <c r="K21">
+        <v>7</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="L21">
+        <v>49</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="9"/>
-        <v>49</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="10"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -2182,31 +2182,31 @@
         <v>16.72</v>
       </c>
       <c r="G22">
+        <f t="shared" si="10"/>
+        <v>-0.49</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="4"/>
-        <v>-0.49</v>
-      </c>
-      <c r="H22">
+        <v>-0.04</v>
+      </c>
+      <c r="I22" s="6">
         <f t="shared" si="5"/>
-        <v>-0.04</v>
-      </c>
-      <c r="I22" s="6">
+        <v>16</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="J22">
+        <v>-9</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="7"/>
-        <v>-9</v>
-      </c>
-      <c r="K22">
+        <v>9</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="L22">
+        <v>81</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="9"/>
-        <v>81</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="10"/>
         <v>1.2857142857142858</v>
       </c>
     </row>
@@ -2234,31 +2234,31 @@
         <v>13.52</v>
       </c>
       <c r="G23">
+        <f t="shared" si="10"/>
+        <v>-0.69</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="4"/>
-        <v>-0.69</v>
-      </c>
-      <c r="H23">
+        <v>-0.05</v>
+      </c>
+      <c r="I23" s="6">
         <f t="shared" si="5"/>
-        <v>-0.05</v>
-      </c>
-      <c r="I23" s="6">
+        <v>13</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="J23">
+        <v>-6</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="7"/>
-        <v>-6</v>
-      </c>
-      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="L23">
+        <v>36</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="9"/>
-        <v>36</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="10"/>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -2284,11 +2284,11 @@
         <v>10.96</v>
       </c>
       <c r="G24" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.82</v>
+      </c>
+      <c r="H24" s="1">
         <f t="shared" si="4"/>
-        <v>-0.82</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="5"/>
         <v>-0.05</v>
       </c>
       <c r="I24" s="5">

--- a/dataLatih/Book1.xlsx
+++ b/dataLatih/Book1.xlsx
@@ -641,11 +641,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="219139072"/>
-        <c:axId val="139780864"/>
+        <c:axId val="199711744"/>
+        <c:axId val="199725824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="219139072"/>
+        <c:axId val="199711744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,7 +688,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139780864"/>
+        <c:crossAx val="199725824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -696,7 +696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139780864"/>
+        <c:axId val="199725824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219139072"/>
+        <c:crossAx val="199711744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1091,7 +1091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1102,12 +1102,13 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" customWidth="1"/>
   </cols>
@@ -1218,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <f>ABS((B3-I3)/B3)*100</f>
+        <f>ROUND(ABS((B3-I3)/B3),3)</f>
         <v>0</v>
       </c>
     </row>
@@ -1254,24 +1255,24 @@
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" ref="I4:I23" si="5">ROUND(F4+G4*1+1/2*H4*1^2,0)</f>
+        <f>ROUND(F4+G4*1+1/2*H4*1^2,0)</f>
         <v>16</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J23" si="6">B4-I4</f>
+        <f t="shared" ref="J4:J23" si="5">B4-I4</f>
         <v>-1</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K23" si="7">ABS(B4-I4)</f>
+        <f t="shared" ref="K4:K23" si="6">ABS(B4-I4)</f>
         <v>1</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L23" si="8">J4^2</f>
+        <f t="shared" ref="L4:L23" si="7">J4^2</f>
         <v>1</v>
       </c>
       <c r="M4">
-        <f>ABS((B4-I4)/B4)</f>
-        <v>6.6666666666666666E-2</v>
+        <f t="shared" ref="M4:M23" si="8">ROUND(ABS((B4-I4)/B4),3)</f>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1306,24 +1307,24 @@
         <v>0</v>
       </c>
       <c r="I5" s="6">
+        <f t="shared" ref="I4:I23" si="9">ROUND(F5+G5*1+1/2*H5*1^2,0)</f>
+        <v>16</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="L5">
+        <v>36</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="8"/>
-        <v>36</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ref="M5:M23" si="9">ABS((B5-I5)/B5)</f>
-        <v>0.27272727272727271</v>
+        <v>0.27300000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1350,7 +1351,7 @@
         <v>17.41</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G4:G24" si="10">ROUND(0.1/2*(1-0.1)^2*((6-5*0.1)*C6-(10-8*0.1)*D6+(4-3*0.1)*E6),2)</f>
+        <f t="shared" ref="G6:G24" si="10">ROUND(0.1/2*(1-0.1)^2*((6-5*0.1)*C6-(10-8*0.1)*D6+(4-3*0.1)*E6),2)</f>
         <v>0.1</v>
       </c>
       <c r="H6">
@@ -1358,23 +1359,23 @@
         <v>0.01</v>
       </c>
       <c r="I6" s="6">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="J6">
+        <v>-10</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="6"/>
-        <v>-10</v>
-      </c>
-      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="9"/>
         <v>1.25</v>
       </c>
     </row>
@@ -1410,24 +1411,24 @@
         <v>0</v>
       </c>
       <c r="I7" s="6">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="J7">
+        <v>11</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="L7">
+        <v>121</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="8"/>
-        <v>121</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="9"/>
-        <v>0.42307692307692307</v>
+        <v>0.42299999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1462,24 +1463,24 @@
         <v>0.01</v>
       </c>
       <c r="I8" s="6">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="9"/>
-        <v>5.8823529411764705E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1514,24 +1515,24 @@
         <v>0.01</v>
       </c>
       <c r="I9" s="6">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="J9">
+        <v>24</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="L9">
+        <v>576</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="8"/>
-        <v>576</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="9"/>
-        <v>0.5714285714285714</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1566,23 +1567,23 @@
         <v>0.03</v>
       </c>
       <c r="I10" s="6">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1618,23 +1619,23 @@
         <v>0.03</v>
       </c>
       <c r="I11" s="6">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="J11">
+        <v>14</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="L11">
+        <v>196</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="8"/>
-        <v>196</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="9"/>
         <v>0.35</v>
       </c>
     </row>
@@ -1670,24 +1671,24 @@
         <v>0.04</v>
       </c>
       <c r="I12" s="6">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="J12">
+        <v>16</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="L12">
+        <v>256</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="8"/>
-        <v>256</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="9"/>
-        <v>0.34042553191489361</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1722,24 +1723,24 @@
         <v>0.06</v>
       </c>
       <c r="I13" s="6">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="9"/>
-        <v>0.21276595744680851</v>
+        <v>0.21299999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1774,24 +1775,24 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I14" s="6">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="5"/>
-        <v>41</v>
-      </c>
-      <c r="J14">
+        <v>-32</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="6"/>
-        <v>-32</v>
-      </c>
-      <c r="K14">
+        <v>32</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="7"/>
-        <v>32</v>
-      </c>
-      <c r="L14">
+        <v>1024</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="8"/>
-        <v>1024</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="9"/>
-        <v>3.5555555555555554</v>
+        <v>3.556</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1826,24 +1827,24 @@
         <v>0.04</v>
       </c>
       <c r="I15" s="6">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="J15">
+        <v>-5</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="6"/>
-        <v>-5</v>
-      </c>
-      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="L15">
+        <v>25</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="9"/>
-        <v>0.17241379310344829</v>
+        <v>0.17199999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1878,23 +1879,23 @@
         <v>0.03</v>
       </c>
       <c r="I16" s="6">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="J16">
+        <v>-14</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="6"/>
-        <v>-14</v>
-      </c>
-      <c r="K16">
+        <v>14</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="L16">
+        <v>196</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="8"/>
-        <v>196</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
     </row>
@@ -1930,24 +1931,24 @@
         <v>0.02</v>
       </c>
       <c r="I17" s="6">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="J17">
+        <v>-9</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="6"/>
-        <v>-9</v>
-      </c>
-      <c r="K17">
+        <v>9</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="L17">
+        <v>81</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="8"/>
-        <v>81</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="9"/>
-        <v>0.40909090909090912</v>
+        <v>0.40899999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1982,24 +1983,24 @@
         <v>0.01</v>
       </c>
       <c r="I18" s="6">
+        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="J18">
+        <v>-12</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="6"/>
-        <v>-12</v>
-      </c>
-      <c r="K18">
+        <v>12</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="L18">
+        <v>144</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="8"/>
-        <v>144</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="9"/>
-        <v>0.70588235294117652</v>
+        <v>0.70599999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2034,24 +2035,24 @@
         <v>-0.01</v>
       </c>
       <c r="I19" s="6">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="J19">
+        <v>-20</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="6"/>
-        <v>-20</v>
-      </c>
-      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="L19">
+        <v>400</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="8"/>
-        <v>400</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="9"/>
-        <v>3.3333333333333335</v>
+        <v>3.3330000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2086,23 +2087,23 @@
         <v>-0.03</v>
       </c>
       <c r="I20" s="6">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="J20">
+        <v>-4</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="6"/>
-        <v>-4</v>
-      </c>
-      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="L20">
+        <v>16</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
     </row>
@@ -2138,24 +2139,24 @@
         <v>-0.03</v>
       </c>
       <c r="I21" s="6">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="J21">
+        <v>-7</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="6"/>
-        <v>-7</v>
-      </c>
-      <c r="K21">
+        <v>7</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="L21">
+        <v>49</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="8"/>
-        <v>49</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="9"/>
-        <v>0.58333333333333337</v>
+        <v>0.58299999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2190,24 +2191,24 @@
         <v>-0.04</v>
       </c>
       <c r="I22" s="6">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="J22">
+        <v>-9</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="6"/>
-        <v>-9</v>
-      </c>
-      <c r="K22">
+        <v>9</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="L22">
+        <v>81</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="8"/>
-        <v>81</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="9"/>
-        <v>1.2857142857142858</v>
+        <v>1.286</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2242,24 +2243,24 @@
         <v>-0.05</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="J23">
+        <f>B23-I23</f>
+        <v>-6</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="6"/>
-        <v>-6</v>
-      </c>
-      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="L23">
+        <v>36</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="8"/>
-        <v>36</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="9"/>
-        <v>0.8571428571428571</v>
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2309,7 +2310,7 @@
       </c>
       <c r="M24" s="4">
         <f>SUM(M3:M23)</f>
-        <v>15.398380872887801</v>
+        <v>15.398</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2326,15 +2327,15 @@
         <v>21</v>
       </c>
       <c r="C28" s="2">
-        <f>K24/C27</f>
-        <v>10.047619047619047</v>
+        <f>ROUND(K24/C27,3)</f>
+        <v>10.048</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
       </c>
       <c r="F28">
-        <f>C31/3</f>
-        <v>82.045049004583802</v>
+        <f>ROUND(C31/3,3)</f>
+        <v>85.106999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2342,8 +2343,8 @@
         <v>22</v>
       </c>
       <c r="C29" s="2">
-        <f>L24/C27-1</f>
-        <v>162.76190476190476</v>
+        <f>ROUND(L24/(C27-1),3)</f>
+        <v>171.95</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2351,8 +2352,8 @@
         <v>23</v>
       </c>
       <c r="C30" s="2">
-        <f>(M24/C27)*100</f>
-        <v>73.325623204227625</v>
+        <f>ROUND((M24/C27)*100,3)</f>
+        <v>73.323999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2361,7 +2362,7 @@
       </c>
       <c r="C31" s="2">
         <f>SUM(C28:C30)</f>
-        <v>246.13514701375141</v>
+        <v>255.322</v>
       </c>
     </row>
   </sheetData>

--- a/dataLatih/Book1.xlsx
+++ b/dataLatih/Book1.xlsx
@@ -641,11 +641,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="199711744"/>
-        <c:axId val="199725824"/>
+        <c:axId val="201161728"/>
+        <c:axId val="155308800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="199711744"/>
+        <c:axId val="201161728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,7 +688,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199725824"/>
+        <c:crossAx val="155308800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -696,7 +696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199725824"/>
+        <c:axId val="155308800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199711744"/>
+        <c:crossAx val="201161728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1091,7 +1091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1102,13 +1102,13 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" customWidth="1"/>
   </cols>
@@ -1259,7 +1259,7 @@
         <v>16</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J23" si="5">B4-I4</f>
+        <f t="shared" ref="J4:J22" si="5">B4-I4</f>
         <v>-1</v>
       </c>
       <c r="K4">
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" ref="I4:I23" si="9">ROUND(F5+G5*1+1/2*H5*1^2,0)</f>
+        <f t="shared" ref="I5:I23" si="9">ROUND(F5+G5*1+1/2*H5*1^2,0)</f>
         <v>16</v>
       </c>
       <c r="J5">
